--- a/4 - IES300A Engenharia de Software III/Exercícios - Lista N1/ListaN1_CasoDeUsoTextual.xlsx
+++ b/4 - IES300A Engenharia de Software III/Exercícios - Lista N1/ListaN1_CasoDeUsoTextual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nome do caso de uso" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
   <si>
     <t xml:space="preserve">Sistema</t>
   </si>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">CSU 02 – Manter Animal</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU 02.01 – Consultar Especie</t>
+    <t xml:space="preserve">CSU 02.01 – Consultar Especie (ManterEspecie)</t>
   </si>
   <si>
     <t xml:space="preserve">Secretário, Cliente, Animal</t>
@@ -166,22 +166,256 @@
     <t xml:space="preserve">Prosseguir no caso de uso Manter Animal().</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente informa os dados nome, idade, peso, raça e espécie para o secretário cadastrar no sistema.</t>
+    <t xml:space="preserve">Cliente informa o nome do animal para secretário verificar se o animal já está cadastrado no sistema. </t>
   </si>
   <si>
     <t xml:space="preserve">Secretário verifica se a espécie informada está cadastrada no sistema. Se sim, seleciona e retorna ao cadastro do animal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretário consulta a lista de espécies que são atendidas por aquela equipe veterinária.</t>
+    <t xml:space="preserve">Se sim, vai ao fluxo alternativo.</t>
   </si>
   <si>
     <t xml:space="preserve">Se não, verifica se o corpo de veterinários possui a especialidade para lidar com aquele tipo de animal</t>
   </si>
   <si>
+    <t xml:space="preserve">Se não, cliente informa os dados nome, idade, peso, raça e espécie para o secretário cadastrar no sistema.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se sim, seleciona e retorna ao cadastro do animal. Se não, vai ao fluxo de exceção.</t>
   </si>
   <si>
+    <t xml:space="preserve">Secretário consulta a lista de espécies que são atendidas por aquela equipe veterinária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vai ao caso de uso Consultar Espécie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso tudo ocorra conforme o planejado, secretário conclui o cadastro do animal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário verifica se os dados do animal estão atualizados. Se sim, segue ao próximo caso de uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se não, atualiza com os dados informados pelo cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espécie não pode ser atendida pelo corpo de profissionais disponível.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Especialidade não é atendida pelo corpo de veterinários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU 03 – Manter Veterinario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU 01.01 – Validar CRMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário, Secretário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário, veterinário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário realiza o cadastro de um novo veterinário no sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário realiza consulta automática integrada ao sistema no site do CRMV estadual, para verificar se o crmv é válido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManterVeterinario() deve ter sido iniciado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terá acesso a outros casos de uso, como realizar consulta e agendar exame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário está apto ou não a prosseguir com seu cadastro na clínica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário solicita os dados de cadastro do veterinário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário informa crmv para secretário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário fornece nome e CPF ao secretário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário verifica se o CRMV é válido por validação automática do sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vai ao CSU01.01 para validar o CPF do veterinário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se sim, retorna ao Manter Veterinario()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o veterinário já estiver cadastrado, vai ao fluxo alternativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se não, solicita também data de nascimento, CRMV, endereço, telefone, especialidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termina o preenchimento e insere o veterinário na lista de veterinários da clínica, bem como suas especialidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso o CRMV não seja válido, o Secretário faz a escolha se quer ou não prosseguir com o cadastro do veterinário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se os dados informados pelo veterinário estão corretos. Caso estejam, segue ao próximo caso de uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se não, verifica e atualiza os dados inconsistentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário decidiu que não cadastrará o veterinário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário não possui CPF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário não possui CRMV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU 04 – Marcar Consulta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretario, Animal, Cliente, Veterinario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente chega à clínica para agendar consulta para seu Pet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente, animal e veterinário devem estar cadastrados no sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente chega à clínica e informa seu nome. Se estiver cadastrado, trará a lista de pets cadastrados em seu nome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário seleciona o pet para aquela consulta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário verifica se o cliente tem preferência de veterinário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário verifica os veterinários disponíveis para aquele tipo de Pet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário consulta a agenda do Consultório para verificar se há datas disponíveis para aquele Veterinario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário confirma consulta com o Cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o Cliente não estiver cadastrado, chamará o caso “manter Cliente”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a lista de pets não retornar o pet atrelado ao cliente, deve chamar o caso “manter Animal”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há datas disponíveis para consulta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU 05 – Realizar Consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU 05.01 – Solicitar exame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretário, Veterinário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManterCliente, ManterAnimal, ManterVeterinario, AgendarConsulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário realiza consulta agendada para determinado pet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário solicita exame do animal para mais informações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente e Animal cadastrados no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registros atualizados e consulta realizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame solicitado e histórico atualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente informa os sintomas do animal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário solicita exame do animal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretária registra os sintomas no histórico da consulta do animal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informa nome do exame e detalhes da solicitação, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminha para o veterinário,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplica medicação (opcional),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário confere o histórico da consulta do animal, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atualiza Histórico (com sintomas, exames, diagnostico),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário verifica exames (opcional),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretária verifica se há exames ou novas consultas para marcar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário analisa as complicações e necessidades do animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finaliza a consulta e gera a conta a pagar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário solicita Exames necessários (opcional),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realiza o exame agendado,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinário verifica último exame solicitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisa se precisa de outro exame ou aguarda a conclusão do exame pendente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica necessidade de novo exame,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se sim: Informa o nome do exame e detalhes da solicitação, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se sim: Continua no 07 do Fluxo Principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continua no 04 do Fluxo Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se não: Continua no 08 do Fluxo Principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se não: Aguarda a conclusão Continua no 04 do Fluxo Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de pagamento instável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta na consulta devido ausência de um dos integrantes</t>
   </si>
 </sst>
 </file>
@@ -191,7 +425,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -233,6 +467,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -469,6 +709,13 @@
       <bottom style="dotted"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -495,7 +742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,11 +895,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,6 +916,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,7 +980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.29"/>
@@ -2692,8 +2975,8 @@
   </sheetPr>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4219,8 +4502,8 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4862,17 +5145,9 @@
       <c r="A27" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
       <c r="L27" s="22" t="n">
         <v>1</v>
       </c>
@@ -4892,17 +5167,9 @@
       <c r="A28" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
       <c r="L28" s="24" t="n">
         <v>2</v>
       </c>
@@ -4922,20 +5189,22 @@
       <c r="A29" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="B29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
       <c r="L29" s="24" t="n">
         <v>3</v>
       </c>
       <c r="M29" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
@@ -4946,19 +5215,21 @@
       <c r="T29" s="41"/>
       <c r="U29" s="41"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="L30" s="28" t="n">
         <v>4</v>
       </c>
@@ -4972,19 +5243,21 @@
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="B31" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
       <c r="L31" s="28" t="n">
         <v>5</v>
       </c>
@@ -5002,15 +5275,9 @@
       <c r="A32" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="B32" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="L32" s="28" t="n">
         <v>6</v>
       </c>
@@ -5206,11 +5473,13 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -5232,11 +5501,13 @@
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -5496,7 +5767,9 @@
       <c r="A51" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
@@ -5509,7 +5782,7 @@
         <v>8</v>
       </c>
       <c r="M51" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
@@ -5741,7 +6014,7 @@
       <c r="J60" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="89">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -5768,9 +6041,7 @@
     <mergeCell ref="L21:U24"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="L26:U26"/>
-    <mergeCell ref="B27:J27"/>
     <mergeCell ref="M27:U27"/>
-    <mergeCell ref="B28:J28"/>
     <mergeCell ref="M28:U28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="M29:U29"/>
@@ -5778,7 +6049,6 @@
     <mergeCell ref="M30:U30"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="M31:U31"/>
-    <mergeCell ref="B32:J32"/>
     <mergeCell ref="M32:U32"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="M33:U33"/>
@@ -5850,10 +6120,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5892,6 +6162,20 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -5906,6 +6190,16 @@
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -5914,7 +6208,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -5924,6 +6218,20 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="7"/>
+      <c r="M4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
@@ -5938,6 +6246,16 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -5945,7 +6263,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -5954,6 +6274,20 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="7"/>
+      <c r="M6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -5968,6 +6302,16 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -5984,6 +6328,18 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="7"/>
+      <c r="M8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
@@ -5998,6 +6354,16 @@
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
@@ -6014,10 +6380,24 @@
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -6028,6 +6408,18 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="7"/>
+      <c r="M11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
@@ -6042,6 +6434,16 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="7"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
@@ -6056,6 +6458,16 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="7"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -6070,6 +6482,16 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="7"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
@@ -6084,6 +6506,16 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="7"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -6098,6 +6530,16 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
@@ -6112,6 +6554,16 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="7"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
@@ -6126,6 +6578,16 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
@@ -6142,6 +6604,18 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="7"/>
+      <c r="M19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
@@ -6156,6 +6630,18 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="7"/>
+      <c r="M20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
@@ -6170,6 +6656,16 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="7"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
@@ -6184,6 +6680,16 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="7"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
@@ -6198,6 +6704,16 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="7"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
@@ -6212,6 +6728,16 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
@@ -6228,10 +6754,24 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="7"/>
+      <c r="M25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6242,6 +6782,18 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="7"/>
+      <c r="M26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
@@ -6256,6 +6808,16 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="7"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
@@ -6270,6 +6832,16 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="7"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
@@ -6284,6 +6856,16 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="7"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -6298,6 +6880,16 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
@@ -6314,17 +6906,27 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="7"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -6334,17 +6936,29 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="7"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -6354,17 +6968,31 @@
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="26"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -6374,13 +7002,29 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -6390,13 +7034,29 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M35" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -6406,13 +7066,27 @@
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
@@ -6422,6 +7096,18 @@
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="7"/>
+      <c r="M37" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
@@ -6438,6 +7124,18 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="7"/>
+      <c r="M38" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
@@ -6454,6 +7152,18 @@
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="7"/>
+      <c r="M39" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
@@ -6470,6 +7180,18 @@
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="L40" s="7"/>
+      <c r="M40" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
@@ -6486,6 +7208,16 @@
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="7"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
@@ -6504,169 +7236,274 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="7"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="7"/>
+      <c r="M44" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
-      <c r="B46" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
+      <c r="B46" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
-      <c r="B47" s="28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
+      <c r="B47" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M47" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="43"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="28" t="n">
-        <v>17</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
+      <c r="B48" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
       <c r="L48" s="7"/>
+      <c r="M48" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="28" t="n">
-        <v>18</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
+      <c r="B49" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
       <c r="L49" s="7"/>
+      <c r="M49" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
-      <c r="B50" s="28" t="n">
-        <v>19</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
       <c r="L50" s="7"/>
+      <c r="M50" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
-      <c r="B51" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
+      <c r="B51" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
       <c r="L51" s="7"/>
+      <c r="M51" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
-      <c r="B52" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="B52" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
       <c r="L52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
-      <c r="B53" s="28" t="n">
-        <v>22</v>
+      <c r="B53" s="24" t="n">
+        <v>7</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -6678,1157 +7515,373 @@
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
       <c r="L53" s="7"/>
+      <c r="M53" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
-      <c r="B54" s="28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="7"/>
+      <c r="M54" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
-      <c r="B55" s="28" t="n">
-        <v>24</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="B55" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
       <c r="L55" s="7"/>
+      <c r="M55" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
-      <c r="B56" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
+      <c r="B56" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
       <c r="L56" s="7"/>
+      <c r="M56" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
-      <c r="B57" s="28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
+      <c r="B57" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="7"/>
+      <c r="M57" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
-      <c r="B58" s="28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
+      <c r="B58" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
-      <c r="B59" s="28" t="n">
-        <v>28</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="B59" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
-      <c r="B60" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="B60" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
-      <c r="B61" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="B61" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
-      <c r="B65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
+      <c r="B65" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
-      <c r="B68" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
-      <c r="B77" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4"/>
-      <c r="B79" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4"/>
-      <c r="B80" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
-      <c r="B81" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4"/>
-      <c r="B82" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
-      <c r="B86" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4"/>
-      <c r="B87" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-      <c r="B88" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
-      <c r="B89" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4"/>
-      <c r="B91" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-      <c r="B92" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="24" t="n">
-        <v>29</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
-      <c r="B95" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4"/>
-      <c r="B96" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="7"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-      <c r="B98" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="7"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4"/>
-      <c r="B99" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="7"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
-      <c r="B100" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
-      <c r="B101" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="7"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
-      <c r="B102" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="7"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4"/>
-      <c r="B103" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4"/>
-      <c r="B104" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4"/>
-      <c r="B105" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
-      <c r="B106" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4"/>
-      <c r="B107" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="7"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4"/>
-      <c r="B108" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4"/>
-      <c r="B109" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="7"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
-      <c r="B110" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4"/>
-      <c r="B111" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="7"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4"/>
-      <c r="B112" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4"/>
-      <c r="B113" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4"/>
-      <c r="B114" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4"/>
-      <c r="B115" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4"/>
-      <c r="B116" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4"/>
-      <c r="B117" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4"/>
-      <c r="B118" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
-      <c r="B119" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="36"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="80">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:V2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:V4"/>
     <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:V6"/>
     <mergeCell ref="D8:K8"/>
+    <mergeCell ref="O8:V8"/>
     <mergeCell ref="B10:J10"/>
+    <mergeCell ref="M10:U10"/>
     <mergeCell ref="B11:K17"/>
+    <mergeCell ref="M11:V17"/>
     <mergeCell ref="B19:K19"/>
+    <mergeCell ref="M19:V19"/>
     <mergeCell ref="B20:K23"/>
+    <mergeCell ref="M20:V23"/>
     <mergeCell ref="B25:K25"/>
+    <mergeCell ref="M25:V25"/>
     <mergeCell ref="B26:K29"/>
+    <mergeCell ref="M26:V29"/>
     <mergeCell ref="B31:K31"/>
+    <mergeCell ref="M31:V31"/>
     <mergeCell ref="C32:K32"/>
+    <mergeCell ref="N32:V32"/>
     <mergeCell ref="C33:K33"/>
+    <mergeCell ref="N33:V33"/>
     <mergeCell ref="C34:K34"/>
+    <mergeCell ref="N34:V34"/>
     <mergeCell ref="C35:K35"/>
+    <mergeCell ref="N35:V35"/>
     <mergeCell ref="C36:K36"/>
+    <mergeCell ref="N36:V36"/>
     <mergeCell ref="C37:K37"/>
+    <mergeCell ref="N37:V37"/>
     <mergeCell ref="C38:K38"/>
+    <mergeCell ref="N38:V38"/>
     <mergeCell ref="C39:K39"/>
+    <mergeCell ref="N39:V39"/>
     <mergeCell ref="C40:K40"/>
+    <mergeCell ref="N40:V40"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="M44:V44"/>
+    <mergeCell ref="N45:V45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="N46:V46"/>
     <mergeCell ref="C47:K47"/>
     <mergeCell ref="C48:K48"/>
+    <mergeCell ref="N48:V48"/>
     <mergeCell ref="C49:K49"/>
+    <mergeCell ref="N49:V49"/>
     <mergeCell ref="C50:K50"/>
+    <mergeCell ref="N50:V50"/>
     <mergeCell ref="C51:K51"/>
+    <mergeCell ref="N51:V51"/>
     <mergeCell ref="C52:K52"/>
+    <mergeCell ref="M52:V52"/>
     <mergeCell ref="C53:K53"/>
+    <mergeCell ref="N53:V53"/>
     <mergeCell ref="C54:K54"/>
+    <mergeCell ref="N54:V54"/>
     <mergeCell ref="C55:K55"/>
+    <mergeCell ref="N55:V55"/>
     <mergeCell ref="C56:K56"/>
+    <mergeCell ref="N56:V56"/>
     <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="N57:V57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="N58:V58"/>
     <mergeCell ref="C59:K59"/>
     <mergeCell ref="C60:K60"/>
     <mergeCell ref="C61:K61"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C70:K70"/>
-    <mergeCell ref="C71:K71"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="C74:K74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C80:K80"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="C83:K83"/>
-    <mergeCell ref="C84:K84"/>
-    <mergeCell ref="C85:K85"/>
-    <mergeCell ref="C86:K86"/>
-    <mergeCell ref="C87:K87"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="C117:K117"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7845,10 +7898,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7909,7 +7962,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -7940,7 +7993,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -8010,9 +8065,11 @@
       <c r="K10" s="16"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -8068,74 +8125,76 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="B17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,30 +8213,32 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8196,32 +8257,30 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,140 +8299,158 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="26"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="B31" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="7"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
-      <c r="B32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="B32" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="7"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
-      <c r="B33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
-      <c r="B34" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="B34" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -8389,279 +8466,263 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
       <c r="L40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
-      <c r="B45" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="B45" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="7"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="28" t="n">
-        <v>17</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="7"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="28" t="n">
-        <v>18</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
+      <c r="B49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
-      <c r="B50" s="28" t="n">
-        <v>19</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
-      <c r="B51" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
+      <c r="B51" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
-      <c r="B52" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="B52" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
-      <c r="B53" s="28" t="n">
-        <v>22</v>
+      <c r="B53" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -8676,212 +8737,232 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
-      <c r="B54" s="28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
-      <c r="B55" s="28" t="n">
-        <v>24</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="B55" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
       <c r="L55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
-      <c r="B56" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
+      <c r="B56" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
-      <c r="B57" s="28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
+      <c r="B57" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
-      <c r="B58" s="28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
+      <c r="B58" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
-      <c r="B59" s="28" t="n">
-        <v>28</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="B59" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
-      <c r="B60" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="B60" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
-      <c r="B61" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="B61" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
-      <c r="B65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
+      <c r="B65" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="B66" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
       <c r="L67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="24" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -8897,7 +8978,7 @@
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="24" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -8912,26 +8993,28 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
-      <c r="B70" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="B70" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -8945,7 +9028,7 @@
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -8961,7 +9044,7 @@
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -8977,7 +9060,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -8993,7 +9076,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -9009,7 +9092,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -9025,7 +9108,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -9041,7 +9124,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -9057,7 +9140,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -9073,7 +9156,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -9089,7 +9172,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -9105,7 +9188,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -9121,7 +9204,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="24" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -9136,596 +9219,36 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
-      <c r="B84" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
+      <c r="B84" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
       <c r="L84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
-      <c r="B86" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4"/>
-      <c r="B87" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-      <c r="B88" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
-      <c r="B89" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4"/>
-      <c r="B91" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-      <c r="B92" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="24" t="n">
-        <v>29</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
-      <c r="B95" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4"/>
-      <c r="B96" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="7"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-      <c r="B98" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="7"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4"/>
-      <c r="B99" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="7"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
-      <c r="B100" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
-      <c r="B101" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="7"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
-      <c r="B102" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="7"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4"/>
-      <c r="B103" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4"/>
-      <c r="B104" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4"/>
-      <c r="B105" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
-      <c r="B106" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4"/>
-      <c r="B107" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="7"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4"/>
-      <c r="B108" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4"/>
-      <c r="B109" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="7"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
-      <c r="B110" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4"/>
-      <c r="B111" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="7"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4"/>
-      <c r="B112" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4"/>
-      <c r="B113" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4"/>
-      <c r="B114" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4"/>
-      <c r="B115" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4"/>
-      <c r="B116" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4"/>
-      <c r="B117" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4"/>
-      <c r="B118" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
-      <c r="B119" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="36"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="66">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B4:C4"/>
@@ -9733,12 +9256,15 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:K17"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K23"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K29"/>
-    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B11:K14"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K26"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="C34:K34"/>
@@ -9753,10 +9279,7 @@
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="C44:K44"/>
     <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="B49:K49"/>
     <mergeCell ref="C50:K50"/>
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="C52:K52"/>
@@ -9769,12 +9292,15 @@
     <mergeCell ref="C59:K59"/>
     <mergeCell ref="C60:K60"/>
     <mergeCell ref="C61:K61"/>
-    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
     <mergeCell ref="C66:K66"/>
     <mergeCell ref="C67:K67"/>
     <mergeCell ref="C68:K68"/>
     <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C70:K70"/>
+    <mergeCell ref="B70:K70"/>
     <mergeCell ref="C71:K71"/>
     <mergeCell ref="C72:K72"/>
     <mergeCell ref="C73:K73"/>
@@ -9789,41 +9315,6 @@
     <mergeCell ref="C82:K82"/>
     <mergeCell ref="C83:K83"/>
     <mergeCell ref="C84:K84"/>
-    <mergeCell ref="C85:K85"/>
-    <mergeCell ref="C86:K86"/>
-    <mergeCell ref="C87:K87"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="C117:K117"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="C119:K119"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9840,10 +9331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O60" activeCellId="0" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9882,6 +9373,20 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -9896,6 +9401,16 @@
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -9904,7 +9419,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -9914,6 +9429,20 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="7"/>
+      <c r="N4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
@@ -9928,6 +9457,16 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -9935,15 +9474,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="D6" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="7"/>
+      <c r="N6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -9958,6 +9513,16 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -9965,7 +9530,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -9974,6 +9541,20 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="7"/>
+      <c r="N8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
@@ -9988,6 +9569,16 @@
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
@@ -10004,10 +9595,24 @@
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -10018,6 +9623,18 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="7"/>
+      <c r="N11" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
@@ -10032,6 +9649,16 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="7"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
@@ -10046,6 +9673,16 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="7"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -10060,6 +9697,16 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="7"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
@@ -10074,6 +9721,16 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="7"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -10088,6 +9745,16 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
@@ -10102,6 +9769,16 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="7"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
@@ -10116,6 +9793,16 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
@@ -10132,6 +9819,18 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="7"/>
+      <c r="N19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
@@ -10146,6 +9845,18 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="7"/>
+      <c r="N20" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
@@ -10160,6 +9871,16 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="7"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
@@ -10174,6 +9895,16 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="7"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
@@ -10188,6 +9919,16 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="7"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
@@ -10202,6 +9943,16 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
@@ -10218,62 +9969,118 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="7"/>
+      <c r="N25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="B26" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="7"/>
+      <c r="N26" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="7"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="7"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="7"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -10288,6 +10095,16 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
@@ -10304,178 +10121,330 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="7"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="C32" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="7"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N32" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="C33" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
       <c r="L33" s="26"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N33" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="C34" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N34" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="C35" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
       <c r="L35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N35" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+      <c r="C36" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N36" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="C37" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N37" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="C38" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N38" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="C39" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N39" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="C40" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N40" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="C41" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="7"/>
+      <c r="N41" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
@@ -10492,6 +10461,18 @@
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="7"/>
+      <c r="N42" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
@@ -10508,6 +10489,18 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="7"/>
+      <c r="N43" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
@@ -10524,1301 +10517,729 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="7"/>
+      <c r="N44" s="28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="7"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="3"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="28" t="n">
-        <v>17</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
+      <c r="B48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="28" t="n">
-        <v>18</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
+      <c r="B49" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N49" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
-      <c r="B50" s="28" t="n">
-        <v>19</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
       <c r="L50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N50" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
-      <c r="B51" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
+      <c r="B51" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N51" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
-      <c r="B52" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="B52" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N52" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
-      <c r="B53" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="B53" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
       <c r="L53" s="7"/>
+      <c r="N53" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
-      <c r="B54" s="28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="7"/>
+      <c r="N54" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
-      <c r="B55" s="28" t="n">
-        <v>24</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="B55" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
       <c r="L55" s="7"/>
+      <c r="N55" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
-      <c r="B56" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
+      <c r="B56" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
       <c r="L56" s="7"/>
+      <c r="N56" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
-      <c r="B57" s="28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
+      <c r="B57" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="7"/>
+      <c r="N57" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
-      <c r="B58" s="28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
+      <c r="B58" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="7"/>
+      <c r="N58" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
-      <c r="B59" s="28" t="n">
-        <v>28</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="B59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
       <c r="L59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
-      <c r="B60" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="B60" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N60" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
-      <c r="B61" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="B61" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="7"/>
+      <c r="N61" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="7"/>
+      <c r="N62" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="7"/>
+      <c r="N63" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="7"/>
+      <c r="N64" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
-      <c r="B65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
+      <c r="B65" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="7"/>
+      <c r="N65" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="B66" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
       <c r="L66" s="7"/>
+      <c r="N66" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
-      <c r="B68" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
-      <c r="B77" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4"/>
-      <c r="B79" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4"/>
-      <c r="B80" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
-      <c r="B81" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4"/>
-      <c r="B82" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
-      <c r="B86" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4"/>
-      <c r="B87" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-      <c r="B88" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
-      <c r="B89" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4"/>
-      <c r="B91" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-      <c r="B92" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="24" t="n">
-        <v>29</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
-      <c r="B95" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4"/>
-      <c r="B96" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="7"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-      <c r="B98" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="7"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4"/>
-      <c r="B99" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="7"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
-      <c r="B100" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
-      <c r="B101" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="7"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
-      <c r="B102" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="7"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4"/>
-      <c r="B103" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4"/>
-      <c r="B104" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4"/>
-      <c r="B105" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
-      <c r="B106" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4"/>
-      <c r="B107" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="7"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4"/>
-      <c r="B108" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4"/>
-      <c r="B109" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="7"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
-      <c r="B110" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4"/>
-      <c r="B111" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="7"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4"/>
-      <c r="B112" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4"/>
-      <c r="B113" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4"/>
-      <c r="B114" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4"/>
-      <c r="B115" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4"/>
-      <c r="B116" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4"/>
-      <c r="B117" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4"/>
-      <c r="B118" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
-      <c r="B119" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="36"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="90">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:W2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:W4"/>
     <mergeCell ref="D6:K6"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="D8:K8"/>
+    <mergeCell ref="P8:W8"/>
     <mergeCell ref="B10:J10"/>
+    <mergeCell ref="N10:V10"/>
     <mergeCell ref="B11:K17"/>
+    <mergeCell ref="N11:W17"/>
     <mergeCell ref="B19:K19"/>
+    <mergeCell ref="N19:W19"/>
     <mergeCell ref="B20:K23"/>
+    <mergeCell ref="N20:W23"/>
     <mergeCell ref="B25:K25"/>
+    <mergeCell ref="N25:W25"/>
     <mergeCell ref="B26:K29"/>
+    <mergeCell ref="N26:W29"/>
     <mergeCell ref="B31:K31"/>
+    <mergeCell ref="N31:W31"/>
     <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
     <mergeCell ref="C33:K33"/>
+    <mergeCell ref="O33:W33"/>
     <mergeCell ref="C34:K34"/>
+    <mergeCell ref="O34:W34"/>
     <mergeCell ref="C35:K35"/>
+    <mergeCell ref="O35:W35"/>
     <mergeCell ref="C36:K36"/>
+    <mergeCell ref="O36:W36"/>
     <mergeCell ref="C37:K37"/>
+    <mergeCell ref="O37:W37"/>
     <mergeCell ref="C38:K38"/>
+    <mergeCell ref="O38:W38"/>
     <mergeCell ref="C39:K39"/>
+    <mergeCell ref="O39:W39"/>
     <mergeCell ref="C40:K40"/>
+    <mergeCell ref="O40:W40"/>
     <mergeCell ref="C41:K41"/>
+    <mergeCell ref="O41:W41"/>
     <mergeCell ref="C42:K42"/>
+    <mergeCell ref="O42:W42"/>
     <mergeCell ref="C43:K43"/>
+    <mergeCell ref="O43:W43"/>
     <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="O44:W44"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="N48:W48"/>
     <mergeCell ref="C49:K49"/>
+    <mergeCell ref="O49:W49"/>
     <mergeCell ref="C50:K50"/>
+    <mergeCell ref="O50:W50"/>
     <mergeCell ref="C51:K51"/>
+    <mergeCell ref="O51:W51"/>
     <mergeCell ref="C52:K52"/>
+    <mergeCell ref="O52:W52"/>
     <mergeCell ref="C53:K53"/>
+    <mergeCell ref="O53:W53"/>
     <mergeCell ref="C54:K54"/>
+    <mergeCell ref="O54:W54"/>
     <mergeCell ref="C55:K55"/>
+    <mergeCell ref="O55:W55"/>
     <mergeCell ref="C56:K56"/>
+    <mergeCell ref="O56:W56"/>
     <mergeCell ref="C57:K57"/>
+    <mergeCell ref="O57:W57"/>
     <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="O58:W58"/>
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="N59:W59"/>
     <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
     <mergeCell ref="C61:K61"/>
-    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="O61:W61"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="O62:W62"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="O63:W63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="O64:W64"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="O65:W65"/>
     <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C70:K70"/>
-    <mergeCell ref="C71:K71"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="C74:K74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C80:K80"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="C83:K83"/>
-    <mergeCell ref="C84:K84"/>
-    <mergeCell ref="C85:K85"/>
-    <mergeCell ref="C86:K86"/>
-    <mergeCell ref="C87:K87"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="C117:K117"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="O66:W66"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
